--- a/Excel/Other/Session3_Exercise.xlsx
+++ b/Excel/Other/Session3_Exercise.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A89E84-2494-40E8-9734-252898989A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="2" r:id="rId1"/>
     <sheet name="Practice" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -130,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,16 +402,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,22 +692,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +722,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -726,7 +735,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -743,7 +752,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4">
         <v>2</v>
       </c>
@@ -760,7 +769,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -777,7 +786,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -794,7 +803,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -813,30 +822,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:P1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
@@ -870,12 +881,8 @@
       <c r="L3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -900,12 +907,12 @@
       <c r="I4" s="5">
         <v>74</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="18"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -930,13 +937,13 @@
       <c r="I5" s="5">
         <v>88</v>
       </c>
-      <c r="O5" s="15" t="str">
+      <c r="O5" s="14" t="str">
         <f>"A"</f>
         <v>A</v>
       </c>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -961,13 +968,13 @@
       <c r="I6" s="5">
         <v>93</v>
       </c>
-      <c r="O6" s="15" t="str">
+      <c r="O6" s="14" t="str">
         <f>"B"</f>
         <v>B</v>
       </c>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -992,13 +999,13 @@
       <c r="I7" s="5">
         <v>44</v>
       </c>
-      <c r="O7" s="16" t="str">
+      <c r="O7" s="15" t="str">
         <f>"C"</f>
         <v>C</v>
       </c>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1265,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1473,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +1499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -1596,7 +1603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +1681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>5</v>
       </c>
@@ -1700,7 +1707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B35" s="8" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1759,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
         <v>10</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
         <v>10</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
         <v>5</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
         <v>5</v>
       </c>
@@ -1882,7 +1889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +1915,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +1941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="8" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="8" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>10</v>
       </c>
@@ -2038,7 +2045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
         <v>10</v>
       </c>
@@ -2090,7 +2097,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
         <v>5</v>
       </c>
@@ -2168,7 +2175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
         <v>10</v>
       </c>
@@ -2194,7 +2201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" s="8" t="s">
         <v>10</v>
       </c>
@@ -2246,7 +2253,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
         <v>10</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="8" t="s">
         <v>10</v>
       </c>
@@ -2298,7 +2305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2331,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
         <v>5</v>
       </c>
@@ -2376,7 +2383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="8" t="s">
         <v>10</v>
       </c>
@@ -2402,7 +2409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="8" t="s">
         <v>10</v>
       </c>
@@ -2428,7 +2435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
         <v>5</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -2480,7 +2487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>10</v>
       </c>
@@ -2506,7 +2513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="8" t="s">
         <v>10</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="8" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="8" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="8" t="s">
         <v>10</v>
       </c>
@@ -2610,7 +2617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
         <v>10</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
         <v>10</v>
       </c>
@@ -2688,7 +2695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="8" t="s">
         <v>5</v>
       </c>
@@ -2714,7 +2721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="8" t="s">
         <v>5</v>
       </c>
@@ -2740,7 +2747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" s="8" t="s">
         <v>5</v>
       </c>
@@ -2792,7 +2799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" s="8" t="s">
         <v>10</v>
       </c>
@@ -2818,7 +2825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="8" t="s">
         <v>10</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" s="8" t="s">
         <v>10</v>
       </c>
@@ -2870,7 +2877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" s="8" t="s">
         <v>10</v>
       </c>
@@ -2896,7 +2903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B81" s="8" t="s">
         <v>10</v>
       </c>
@@ -2922,7 +2929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B82" s="8" t="s">
         <v>5</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B83" s="8" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +2981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B84" s="8" t="s">
         <v>5</v>
       </c>
@@ -3000,7 +3007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>10</v>
       </c>
@@ -3026,7 +3033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B86" s="8" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B87" s="8" t="s">
         <v>10</v>
       </c>
@@ -3078,7 +3085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B88" s="8" t="s">
         <v>10</v>
       </c>
@@ -3104,7 +3111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B89" s="8" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B90" s="8" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B91" s="8" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3189,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B92" s="8" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B93" s="8" t="s">
         <v>5</v>
       </c>
@@ -3234,7 +3241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B94" s="8" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B95" s="8" t="s">
         <v>10</v>
       </c>
@@ -3286,7 +3293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="8" t="s">
         <v>10</v>
       </c>
@@ -3312,7 +3319,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B97" s="8" t="s">
         <v>10</v>
       </c>
@@ -3338,7 +3345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B98" s="8" t="s">
         <v>5</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B99" s="8" t="s">
         <v>10</v>
       </c>
@@ -3390,7 +3397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B100" s="8" t="s">
         <v>10</v>
       </c>
@@ -3416,7 +3423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B101" s="8" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B102" s="8" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B103" s="8" t="s">
         <v>5</v>
       </c>
@@ -3494,7 +3501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B104" s="8" t="s">
         <v>10</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B105" s="8" t="s">
         <v>10</v>
       </c>
@@ -3546,7 +3553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B106" s="8" t="s">
         <v>5</v>
       </c>
@@ -3572,7 +3579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B107" s="8" t="s">
         <v>10</v>
       </c>
@@ -3598,7 +3605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B108" s="8" t="s">
         <v>10</v>
       </c>
@@ -3624,7 +3631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B109" s="8" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +3657,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B110" s="8" t="s">
         <v>5</v>
       </c>
@@ -3676,7 +3683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B111" s="8" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +3709,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B112" s="8" t="s">
         <v>5</v>
       </c>
@@ -3728,7 +3735,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B113" s="8" t="s">
         <v>5</v>
       </c>
@@ -3754,7 +3761,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B114" s="8" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B115" s="8" t="s">
         <v>10</v>
       </c>
@@ -3806,7 +3813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B116" s="8" t="s">
         <v>10</v>
       </c>
@@ -3832,7 +3839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B117" s="8" t="s">
         <v>5</v>
       </c>
@@ -3858,7 +3865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B118" s="8" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B119" s="8" t="s">
         <v>10</v>
       </c>
@@ -3910,7 +3917,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B120" s="8" t="s">
         <v>5</v>
       </c>
@@ -3936,7 +3943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B121" s="8" t="s">
         <v>5</v>
       </c>
@@ -3962,7 +3969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B122" s="8" t="s">
         <v>5</v>
       </c>
@@ -3988,7 +3995,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B123" s="8" t="s">
         <v>5</v>
       </c>
@@ -4014,7 +4021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B124" s="8" t="s">
         <v>5</v>
       </c>
@@ -4040,7 +4047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B125" s="8" t="s">
         <v>10</v>
       </c>
@@ -4066,7 +4073,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B126" s="8" t="s">
         <v>5</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B127" s="8" t="s">
         <v>10</v>
       </c>
@@ -4118,7 +4125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B128" s="8" t="s">
         <v>10</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B129" s="8" t="s">
         <v>5</v>
       </c>
@@ -4170,7 +4177,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B130" s="8" t="s">
         <v>10</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B131" s="8" t="s">
         <v>10</v>
       </c>
@@ -4222,7 +4229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B132" s="8" t="s">
         <v>10</v>
       </c>
@@ -4248,7 +4255,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B133" s="8" t="s">
         <v>5</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B134" s="8" t="s">
         <v>10</v>
       </c>
@@ -4300,7 +4307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B135" s="8" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +4333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B136" s="8" t="s">
         <v>10</v>
       </c>
@@ -4352,7 +4359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B137" s="8" t="s">
         <v>5</v>
       </c>
@@ -4378,7 +4385,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B138" s="8" t="s">
         <v>10</v>
       </c>
@@ -4404,7 +4411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B139" s="8" t="s">
         <v>10</v>
       </c>
@@ -4430,7 +4437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B140" s="8" t="s">
         <v>10</v>
       </c>
@@ -4456,7 +4463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B141" s="8" t="s">
         <v>10</v>
       </c>
@@ -4482,7 +4489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B142" s="8" t="s">
         <v>5</v>
       </c>
@@ -4508,7 +4515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B143" s="8" t="s">
         <v>10</v>
       </c>
@@ -4534,7 +4541,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B144" s="8" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4567,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B145" s="8" t="s">
         <v>5</v>
       </c>
@@ -4586,7 +4593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B146" s="8" t="s">
         <v>5</v>
       </c>
@@ -4612,7 +4619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B147" s="8" t="s">
         <v>10</v>
       </c>
@@ -4638,7 +4645,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B148" s="8" t="s">
         <v>10</v>
       </c>
@@ -4664,7 +4671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B149" s="8" t="s">
         <v>5</v>
       </c>
@@ -4690,7 +4697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B150" s="8" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B151" s="8" t="s">
         <v>10</v>
       </c>
@@ -4742,7 +4749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B152" s="8" t="s">
         <v>5</v>
       </c>
@@ -4768,7 +4775,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B153" s="8" t="s">
         <v>10</v>
       </c>
@@ -4794,7 +4801,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B154" s="8" t="s">
         <v>10</v>
       </c>
@@ -4820,7 +4827,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B155" s="8" t="s">
         <v>10</v>
       </c>
@@ -4846,7 +4853,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B156" s="8" t="s">
         <v>5</v>
       </c>
@@ -4872,7 +4879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B157" s="8" t="s">
         <v>10</v>
       </c>
@@ -4898,7 +4905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B158" s="8" t="s">
         <v>10</v>
       </c>
@@ -4924,7 +4931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B159" s="8" t="s">
         <v>5</v>
       </c>
@@ -4950,7 +4957,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B160" s="8" t="s">
         <v>5</v>
       </c>
@@ -4976,7 +4983,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B161" s="8" t="s">
         <v>10</v>
       </c>
@@ -5002,7 +5009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B162" s="8" t="s">
         <v>5</v>
       </c>
@@ -5028,7 +5035,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B163" s="8" t="s">
         <v>10</v>
       </c>
@@ -5054,7 +5061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B164" s="8" t="s">
         <v>10</v>
       </c>
@@ -5080,7 +5087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B165" s="8" t="s">
         <v>5</v>
       </c>
@@ -5106,7 +5113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B166" s="8" t="s">
         <v>10</v>
       </c>
@@ -5132,7 +5139,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B167" s="8" t="s">
         <v>10</v>
       </c>
@@ -5158,7 +5165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B168" s="8" t="s">
         <v>5</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B169" s="8" t="s">
         <v>5</v>
       </c>
@@ -5210,7 +5217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B170" s="8" t="s">
         <v>10</v>
       </c>
@@ -5236,7 +5243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B171" s="8" t="s">
         <v>5</v>
       </c>
@@ -5262,7 +5269,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B172" s="8" t="s">
         <v>5</v>
       </c>
@@ -5288,7 +5295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B173" s="8" t="s">
         <v>5</v>
       </c>
@@ -5314,7 +5321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B174" s="8" t="s">
         <v>10</v>
       </c>
@@ -5340,7 +5347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B175" s="8" t="s">
         <v>10</v>
       </c>
@@ -5366,7 +5373,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B176" s="8" t="s">
         <v>5</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B177" s="8" t="s">
         <v>5</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B178" s="8" t="s">
         <v>5</v>
       </c>
@@ -5444,7 +5451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B179" s="8" t="s">
         <v>5</v>
       </c>
@@ -5470,7 +5477,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B180" s="8" t="s">
         <v>5</v>
       </c>
@@ -5496,7 +5503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B181" s="8" t="s">
         <v>5</v>
       </c>
@@ -5522,7 +5529,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B182" s="8" t="s">
         <v>5</v>
       </c>
@@ -5548,7 +5555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B183" s="8" t="s">
         <v>5</v>
       </c>
@@ -5574,7 +5581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B184" s="8" t="s">
         <v>10</v>
       </c>
@@ -5600,7 +5607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B185" s="8" t="s">
         <v>5</v>
       </c>
@@ -5626,7 +5633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B186" s="8" t="s">
         <v>5</v>
       </c>
@@ -5652,7 +5659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B187" s="8" t="s">
         <v>5</v>
       </c>
@@ -5678,7 +5685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B188" s="8" t="s">
         <v>10</v>
       </c>
@@ -5704,7 +5711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B189" s="8" t="s">
         <v>10</v>
       </c>
@@ -5730,7 +5737,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B190" s="8" t="s">
         <v>10</v>
       </c>
@@ -5756,7 +5763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B191" s="8" t="s">
         <v>10</v>
       </c>
@@ -5782,7 +5789,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B192" s="8" t="s">
         <v>10</v>
       </c>
@@ -5808,7 +5815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B193" s="8" t="s">
         <v>5</v>
       </c>
@@ -5834,7 +5841,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B194" s="8" t="s">
         <v>5</v>
       </c>
@@ -5860,7 +5867,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B195" s="8" t="s">
         <v>10</v>
       </c>
@@ -5886,7 +5893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B196" s="8" t="s">
         <v>5</v>
       </c>
@@ -5912,7 +5919,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B197" s="8" t="s">
         <v>10</v>
       </c>
@@ -5938,7 +5945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B198" s="8" t="s">
         <v>5</v>
       </c>
@@ -5964,7 +5971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B199" s="8" t="s">
         <v>10</v>
       </c>
@@ -5990,7 +5997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B200" s="8" t="s">
         <v>10</v>
       </c>
@@ -6016,7 +6023,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B201" s="8" t="s">
         <v>10</v>
       </c>
@@ -6042,7 +6049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B202" s="8" t="s">
         <v>5</v>
       </c>
@@ -6068,7 +6075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B203" s="8" t="s">
         <v>5</v>
       </c>
@@ -6094,7 +6101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B204" s="8" t="s">
         <v>5</v>
       </c>
@@ -6120,7 +6127,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B205" s="8" t="s">
         <v>5</v>
       </c>
@@ -6146,7 +6153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B206" s="8" t="s">
         <v>10</v>
       </c>
@@ -6172,7 +6179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B207" s="8" t="s">
         <v>5</v>
       </c>
@@ -6198,7 +6205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B208" s="8" t="s">
         <v>10</v>
       </c>
@@ -6224,7 +6231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B209" s="8" t="s">
         <v>10</v>
       </c>
@@ -6250,7 +6257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B210" s="8" t="s">
         <v>10</v>
       </c>
@@ -6276,7 +6283,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B211" s="8" t="s">
         <v>10</v>
       </c>
@@ -6302,7 +6309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B212" s="8" t="s">
         <v>5</v>
       </c>
@@ -6328,7 +6335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B213" s="8" t="s">
         <v>5</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B214" s="8" t="s">
         <v>10</v>
       </c>
@@ -6380,7 +6387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B215" s="8" t="s">
         <v>10</v>
       </c>
@@ -6406,7 +6413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B216" s="8" t="s">
         <v>5</v>
       </c>
@@ -6432,7 +6439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B217" s="8" t="s">
         <v>10</v>
       </c>
@@ -6458,7 +6465,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B218" s="8" t="s">
         <v>10</v>
       </c>
@@ -6484,7 +6491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B219" s="8" t="s">
         <v>10</v>
       </c>
@@ -6510,7 +6517,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B220" s="8" t="s">
         <v>5</v>
       </c>
@@ -6536,7 +6543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B221" s="8" t="s">
         <v>5</v>
       </c>
@@ -6562,7 +6569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B222" s="8" t="s">
         <v>10</v>
       </c>
@@ -6588,7 +6595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B223" s="8" t="s">
         <v>10</v>
       </c>
@@ -6614,7 +6621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B224" s="8" t="s">
         <v>5</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B225" s="8" t="s">
         <v>10</v>
       </c>
@@ -6666,7 +6673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B226" s="8" t="s">
         <v>5</v>
       </c>
@@ -6692,7 +6699,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B227" s="8" t="s">
         <v>10</v>
       </c>
@@ -6718,7 +6725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B228" s="8" t="s">
         <v>5</v>
       </c>
@@ -6744,7 +6751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B229" s="8" t="s">
         <v>5</v>
       </c>
@@ -6770,7 +6777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B230" s="8" t="s">
         <v>5</v>
       </c>
@@ -6796,7 +6803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B231" s="8" t="s">
         <v>10</v>
       </c>
@@ -6822,7 +6829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B232" s="8" t="s">
         <v>10</v>
       </c>
@@ -6848,7 +6855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B233" s="8" t="s">
         <v>5</v>
       </c>
@@ -6874,7 +6881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B234" s="8" t="s">
         <v>10</v>
       </c>
@@ -6900,7 +6907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B235" s="8" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +6933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B236" s="8" t="s">
         <v>5</v>
       </c>
@@ -6952,7 +6959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B237" s="8" t="s">
         <v>10</v>
       </c>
@@ -6978,7 +6985,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B238" s="8" t="s">
         <v>10</v>
       </c>
@@ -7004,7 +7011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B239" s="8" t="s">
         <v>10</v>
       </c>
@@ -7030,7 +7037,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B240" s="8" t="s">
         <v>10</v>
       </c>
@@ -7056,7 +7063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B241" s="8" t="s">
         <v>5</v>
       </c>
@@ -7082,7 +7089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B242" s="8" t="s">
         <v>10</v>
       </c>
@@ -7108,7 +7115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B243" s="8" t="s">
         <v>10</v>
       </c>
@@ -7134,7 +7141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B244" s="8" t="s">
         <v>10</v>
       </c>
@@ -7160,7 +7167,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B245" s="8" t="s">
         <v>5</v>
       </c>
@@ -7186,7 +7193,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B246" s="8" t="s">
         <v>5</v>
       </c>
@@ -7212,7 +7219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B247" s="8" t="s">
         <v>10</v>
       </c>
@@ -7238,7 +7245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B248" s="8" t="s">
         <v>10</v>
       </c>
@@ -7264,7 +7271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B249" s="8" t="s">
         <v>10</v>
       </c>
@@ -7290,7 +7297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B250" s="8" t="s">
         <v>10</v>
       </c>
@@ -7316,7 +7323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B251" s="8" t="s">
         <v>5</v>
       </c>
@@ -7342,7 +7349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B252" s="8" t="s">
         <v>5</v>
       </c>
@@ -7368,7 +7375,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B253" s="8" t="s">
         <v>10</v>
       </c>
@@ -7394,7 +7401,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B254" s="8" t="s">
         <v>10</v>
       </c>
@@ -7420,7 +7427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B255" s="8" t="s">
         <v>5</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B256" s="8" t="s">
         <v>5</v>
       </c>
@@ -7472,7 +7479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B257" s="8" t="s">
         <v>10</v>
       </c>
@@ -7498,7 +7505,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B258" s="8" t="s">
         <v>10</v>
       </c>
@@ -7524,7 +7531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B259" s="8" t="s">
         <v>5</v>
       </c>
@@ -7550,7 +7557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B260" s="8" t="s">
         <v>5</v>
       </c>
@@ -7576,7 +7583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B261" s="8" t="s">
         <v>10</v>
       </c>
@@ -7602,7 +7609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B262" s="8" t="s">
         <v>5</v>
       </c>
@@ -7628,7 +7635,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B263" s="8" t="s">
         <v>5</v>
       </c>
@@ -7654,7 +7661,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B264" s="8" t="s">
         <v>5</v>
       </c>
@@ -7680,7 +7687,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B265" s="8" t="s">
         <v>10</v>
       </c>
@@ -7706,7 +7713,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B266" s="8" t="s">
         <v>5</v>
       </c>
@@ -7732,7 +7739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B267" s="8" t="s">
         <v>5</v>
       </c>
@@ -7758,7 +7765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B268" s="8" t="s">
         <v>10</v>
       </c>
@@ -7784,7 +7791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B269" s="8" t="s">
         <v>10</v>
       </c>
@@ -7810,7 +7817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B270" s="8" t="s">
         <v>5</v>
       </c>
@@ -7836,7 +7843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B271" s="8" t="s">
         <v>5</v>
       </c>
@@ -7862,7 +7869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B272" s="8" t="s">
         <v>5</v>
       </c>
@@ -7888,7 +7895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B273" s="8" t="s">
         <v>5</v>
       </c>
@@ -7914,7 +7921,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B274" s="8" t="s">
         <v>10</v>
       </c>
@@ -7940,7 +7947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B275" s="8" t="s">
         <v>10</v>
       </c>
@@ -7966,7 +7973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B276" s="8" t="s">
         <v>5</v>
       </c>
@@ -7992,7 +7999,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B277" s="8" t="s">
         <v>5</v>
       </c>
@@ -8018,7 +8025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B278" s="8" t="s">
         <v>10</v>
       </c>
@@ -8044,7 +8051,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B279" s="8" t="s">
         <v>10</v>
       </c>
@@ -8070,7 +8077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B280" s="8" t="s">
         <v>5</v>
       </c>
@@ -8096,7 +8103,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B281" s="8" t="s">
         <v>5</v>
       </c>
@@ -8122,7 +8129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B282" s="8" t="s">
         <v>5</v>
       </c>
@@ -8148,7 +8155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B283" s="8" t="s">
         <v>10</v>
       </c>
@@ -8174,7 +8181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B284" s="8" t="s">
         <v>10</v>
       </c>
@@ -8200,7 +8207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B285" s="8" t="s">
         <v>10</v>
       </c>
@@ -8226,7 +8233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B286" s="8" t="s">
         <v>5</v>
       </c>
@@ -8252,7 +8259,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B287" s="8" t="s">
         <v>5</v>
       </c>
@@ -8278,7 +8285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B288" s="8" t="s">
         <v>5</v>
       </c>
@@ -8304,7 +8311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B289" s="8" t="s">
         <v>10</v>
       </c>
@@ -8330,7 +8337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B290" s="8" t="s">
         <v>10</v>
       </c>
@@ -8356,7 +8363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B291" s="8" t="s">
         <v>5</v>
       </c>
@@ -8382,7 +8389,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B292" s="8" t="s">
         <v>10</v>
       </c>
@@ -8408,7 +8415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B293" s="8" t="s">
         <v>10</v>
       </c>
@@ -8434,7 +8441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B294" s="8" t="s">
         <v>10</v>
       </c>
@@ -8460,7 +8467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B295" s="8" t="s">
         <v>10</v>
       </c>
@@ -8486,7 +8493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B296" s="8" t="s">
         <v>10</v>
       </c>
@@ -8512,7 +8519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B297" s="8" t="s">
         <v>5</v>
       </c>
@@ -8538,7 +8545,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B298" s="8" t="s">
         <v>10</v>
       </c>
@@ -8564,7 +8571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B299" s="8" t="s">
         <v>10</v>
       </c>
@@ -8590,7 +8597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B300" s="8" t="s">
         <v>10</v>
       </c>
@@ -8616,7 +8623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B301" s="8" t="s">
         <v>10</v>
       </c>
@@ -8642,7 +8649,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B302" s="8" t="s">
         <v>10</v>
       </c>
@@ -8668,7 +8675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B303" s="8" t="s">
         <v>10</v>
       </c>
@@ -8694,7 +8701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B304" s="8" t="s">
         <v>10</v>
       </c>
@@ -8720,7 +8727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B305" s="8" t="s">
         <v>10</v>
       </c>
@@ -8746,7 +8753,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B306" s="8" t="s">
         <v>5</v>
       </c>
@@ -8772,7 +8779,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B307" s="8" t="s">
         <v>10</v>
       </c>
@@ -8798,7 +8805,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B308" s="8" t="s">
         <v>5</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B309" s="8" t="s">
         <v>10</v>
       </c>
@@ -8850,7 +8857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B310" s="8" t="s">
         <v>10</v>
       </c>
@@ -8876,7 +8883,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B311" s="8" t="s">
         <v>10</v>
       </c>
@@ -8902,7 +8909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B312" s="8" t="s">
         <v>5</v>
       </c>
@@ -8928,7 +8935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B313" s="8" t="s">
         <v>5</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B314" s="8" t="s">
         <v>5</v>
       </c>
@@ -8980,7 +8987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B315" s="8" t="s">
         <v>10</v>
       </c>
@@ -9006,7 +9013,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B316" s="8" t="s">
         <v>10</v>
       </c>
@@ -9032,7 +9039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B317" s="8" t="s">
         <v>5</v>
       </c>
@@ -9058,7 +9065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="318" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B318" s="8" t="s">
         <v>5</v>
       </c>
@@ -9084,7 +9091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="319" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B319" s="8" t="s">
         <v>10</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="320" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B320" s="8" t="s">
         <v>5</v>
       </c>
@@ -9136,7 +9143,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="321" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B321" s="8" t="s">
         <v>10</v>
       </c>
@@ -9162,7 +9169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="322" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B322" s="8" t="s">
         <v>10</v>
       </c>
@@ -9188,7 +9195,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="323" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B323" s="8" t="s">
         <v>5</v>
       </c>
@@ -9214,7 +9221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B324" s="8" t="s">
         <v>5</v>
       </c>
@@ -9240,7 +9247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="325" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B325" s="8" t="s">
         <v>5</v>
       </c>
@@ -9266,7 +9273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="326" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B326" s="8" t="s">
         <v>5</v>
       </c>
@@ -9292,7 +9299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="327" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B327" s="8" t="s">
         <v>5</v>
       </c>
@@ -9318,7 +9325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="328" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B328" s="8" t="s">
         <v>5</v>
       </c>
@@ -9344,7 +9351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="329" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B329" s="8" t="s">
         <v>5</v>
       </c>
@@ -9370,7 +9377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="330" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B330" s="8" t="s">
         <v>10</v>
       </c>
@@ -9396,7 +9403,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="331" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B331" s="8" t="s">
         <v>10</v>
       </c>
@@ -9422,7 +9429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B332" s="8" t="s">
         <v>10</v>
       </c>
@@ -9448,7 +9455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="333" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B333" s="8" t="s">
         <v>5</v>
       </c>
@@ -9474,7 +9481,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B334" s="8" t="s">
         <v>10</v>
       </c>
@@ -9500,7 +9507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="335" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B335" s="8" t="s">
         <v>10</v>
       </c>
@@ -9526,7 +9533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B336" s="8" t="s">
         <v>10</v>
       </c>
@@ -9552,7 +9559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B337" s="8" t="s">
         <v>10</v>
       </c>
@@ -9578,7 +9585,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B338" s="8" t="s">
         <v>5</v>
       </c>
@@ -9604,7 +9611,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B339" s="8" t="s">
         <v>5</v>
       </c>
@@ -9630,7 +9637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B340" s="8" t="s">
         <v>10</v>
       </c>
@@ -9656,7 +9663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B341" s="8" t="s">
         <v>10</v>
       </c>
@@ -9682,7 +9689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B342" s="8" t="s">
         <v>5</v>
       </c>
@@ -9708,7 +9715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B343" s="8" t="s">
         <v>5</v>
       </c>
@@ -9734,7 +9741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B344" s="8" t="s">
         <v>10</v>
       </c>
@@ -9760,7 +9767,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B345" s="8" t="s">
         <v>5</v>
       </c>
@@ -9786,7 +9793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B346" s="8" t="s">
         <v>5</v>
       </c>
@@ -9812,7 +9819,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B347" s="8" t="s">
         <v>10</v>
       </c>
@@ -9838,7 +9845,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B348" s="8" t="s">
         <v>10</v>
       </c>
@@ -9864,7 +9871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B349" s="8" t="s">
         <v>5</v>
       </c>
@@ -9890,7 +9897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B350" s="8" t="s">
         <v>10</v>
       </c>
@@ -9916,7 +9923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B351" s="8" t="s">
         <v>5</v>
       </c>
@@ -9942,7 +9949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B352" s="8" t="s">
         <v>10</v>
       </c>
@@ -9968,7 +9975,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="353" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B353" s="8" t="s">
         <v>10</v>
       </c>
@@ -9994,7 +10001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="354" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B354" s="8" t="s">
         <v>5</v>
       </c>
@@ -10020,7 +10027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="355" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B355" s="8" t="s">
         <v>10</v>
       </c>
@@ -10046,7 +10053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="356" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B356" s="8" t="s">
         <v>5</v>
       </c>
@@ -10072,7 +10079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="357" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B357" s="8" t="s">
         <v>5</v>
       </c>
@@ -10098,7 +10105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="358" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B358" s="8" t="s">
         <v>5</v>
       </c>
@@ -10124,7 +10131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="359" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B359" s="8" t="s">
         <v>5</v>
       </c>
@@ -10150,7 +10157,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="360" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B360" s="8" t="s">
         <v>10</v>
       </c>
@@ -10176,7 +10183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="361" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B361" s="8" t="s">
         <v>5</v>
       </c>
@@ -10202,7 +10209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B362" s="8" t="s">
         <v>10</v>
       </c>
@@ -10228,7 +10235,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="363" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B363" s="8" t="s">
         <v>5</v>
       </c>
@@ -10254,7 +10261,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="364" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B364" s="8" t="s">
         <v>5</v>
       </c>
@@ -10280,7 +10287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="365" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B365" s="8" t="s">
         <v>10</v>
       </c>
@@ -10306,7 +10313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="366" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B366" s="8" t="s">
         <v>5</v>
       </c>
@@ -10332,7 +10339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="367" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B367" s="8" t="s">
         <v>5</v>
       </c>
@@ -10358,7 +10365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B368" s="8" t="s">
         <v>10</v>
       </c>
@@ -10384,7 +10391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B369" s="8" t="s">
         <v>10</v>
       </c>
@@ -10410,7 +10417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B370" s="8" t="s">
         <v>10</v>
       </c>
@@ -10436,7 +10443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B371" s="8" t="s">
         <v>10</v>
       </c>
@@ -10462,7 +10469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B372" s="8" t="s">
         <v>5</v>
       </c>
@@ -10488,7 +10495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B373" s="8" t="s">
         <v>5</v>
       </c>
@@ -10514,7 +10521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B374" s="8" t="s">
         <v>10</v>
       </c>
@@ -10540,7 +10547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="375" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B375" s="8" t="s">
         <v>5</v>
       </c>
@@ -10566,7 +10573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="376" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B376" s="8" t="s">
         <v>10</v>
       </c>
@@ -10592,7 +10599,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="377" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B377" s="8" t="s">
         <v>5</v>
       </c>
@@ -10618,7 +10625,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="378" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B378" s="8" t="s">
         <v>5</v>
       </c>
@@ -10644,7 +10651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B379" s="8" t="s">
         <v>10</v>
       </c>
@@ -10670,7 +10677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="380" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B380" s="8" t="s">
         <v>5</v>
       </c>
@@ -10696,7 +10703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="381" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B381" s="8" t="s">
         <v>5</v>
       </c>
@@ -10722,7 +10729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="382" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B382" s="8" t="s">
         <v>5</v>
       </c>
@@ -10748,7 +10755,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="383" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B383" s="8" t="s">
         <v>10</v>
       </c>
@@ -10774,7 +10781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="384" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B384" s="8" t="s">
         <v>5</v>
       </c>
@@ -10800,7 +10807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="385" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B385" s="8" t="s">
         <v>10</v>
       </c>
@@ -10826,7 +10833,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="386" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B386" s="8" t="s">
         <v>10</v>
       </c>
@@ -10852,7 +10859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="387" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B387" s="8" t="s">
         <v>5</v>
       </c>
@@ -10878,7 +10885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B388" s="8" t="s">
         <v>5</v>
       </c>
@@ -10904,7 +10911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="389" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B389" s="8" t="s">
         <v>5</v>
       </c>
@@ -10930,7 +10937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="390" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B390" s="8" t="s">
         <v>5</v>
       </c>
@@ -10956,7 +10963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="391" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B391" s="8" t="s">
         <v>5</v>
       </c>
@@ -10982,7 +10989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="392" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B392" s="8" t="s">
         <v>5</v>
       </c>
@@ -11008,7 +11015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="393" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B393" s="8" t="s">
         <v>10</v>
       </c>
@@ -11034,7 +11041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="394" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B394" s="8" t="s">
         <v>10</v>
       </c>
@@ -11060,7 +11067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="395" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B395" s="8" t="s">
         <v>5</v>
       </c>
@@ -11086,7 +11093,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="396" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B396" s="8" t="s">
         <v>10</v>
       </c>
@@ -11112,7 +11119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="397" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B397" s="8" t="s">
         <v>10</v>
       </c>
@@ -11138,7 +11145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="398" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B398" s="8" t="s">
         <v>5</v>
       </c>
@@ -11164,7 +11171,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="399" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B399" s="8" t="s">
         <v>10</v>
       </c>
@@ -11190,7 +11197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B400" s="8" t="s">
         <v>5</v>
       </c>
@@ -11216,7 +11223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="401" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B401" s="8" t="s">
         <v>5</v>
       </c>
@@ -11242,7 +11249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="402" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B402" s="8" t="s">
         <v>10</v>
       </c>
@@ -11268,7 +11275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="403" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B403" s="8" t="s">
         <v>10</v>
       </c>
@@ -11294,7 +11301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="404" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B404" s="8" t="s">
         <v>5</v>
       </c>
@@ -11320,7 +11327,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="405" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B405" s="8" t="s">
         <v>10</v>
       </c>
@@ -11346,7 +11353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="406" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B406" s="8" t="s">
         <v>5</v>
       </c>
@@ -11372,7 +11379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="407" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B407" s="8" t="s">
         <v>5</v>
       </c>
@@ -11398,7 +11405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="408" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B408" s="8" t="s">
         <v>5</v>
       </c>
@@ -11424,7 +11431,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="409" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B409" s="8" t="s">
         <v>5</v>
       </c>
@@ -11450,7 +11457,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="410" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B410" s="8" t="s">
         <v>10</v>
       </c>
@@ -11476,7 +11483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="411" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B411" s="8" t="s">
         <v>5</v>
       </c>
@@ -11502,7 +11509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="412" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B412" s="8" t="s">
         <v>5</v>
       </c>
@@ -11528,7 +11535,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="413" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B413" s="8" t="s">
         <v>10</v>
       </c>
@@ -11554,7 +11561,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="414" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B414" s="8" t="s">
         <v>5</v>
       </c>
@@ -11580,7 +11587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="415" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B415" s="8" t="s">
         <v>10</v>
       </c>
@@ -11606,7 +11613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="416" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B416" s="8" t="s">
         <v>10</v>
       </c>
@@ -11632,7 +11639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="417" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B417" s="8" t="s">
         <v>10</v>
       </c>
@@ -11658,7 +11665,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="418" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B418" s="8" t="s">
         <v>5</v>
       </c>
@@ -11684,7 +11691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="419" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B419" s="8" t="s">
         <v>10</v>
       </c>
@@ -11710,7 +11717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="420" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B420" s="8" t="s">
         <v>10</v>
       </c>
@@ -11736,7 +11743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="421" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B421" s="8" t="s">
         <v>10</v>
       </c>
@@ -11762,7 +11769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="422" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B422" s="8" t="s">
         <v>10</v>
       </c>
@@ -11788,7 +11795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="423" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B423" s="8" t="s">
         <v>10</v>
       </c>
@@ -11814,7 +11821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="424" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B424" s="8" t="s">
         <v>5</v>
       </c>
@@ -11840,7 +11847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="425" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B425" s="8" t="s">
         <v>5</v>
       </c>
@@ -11866,7 +11873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="426" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B426" s="8" t="s">
         <v>5</v>
       </c>
@@ -11892,7 +11899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="427" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B427" s="8" t="s">
         <v>5</v>
       </c>
@@ -11918,7 +11925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="428" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B428" s="8" t="s">
         <v>10</v>
       </c>
@@ -11944,7 +11951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="429" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B429" s="8" t="s">
         <v>5</v>
       </c>
@@ -11970,7 +11977,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="430" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B430" s="8" t="s">
         <v>10</v>
       </c>
@@ -11996,7 +12003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="431" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B431" s="8" t="s">
         <v>10</v>
       </c>
@@ -12022,7 +12029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="432" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B432" s="8" t="s">
         <v>10</v>
       </c>
@@ -12048,7 +12055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="433" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B433" s="8" t="s">
         <v>10</v>
       </c>
@@ -12074,7 +12081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="434" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B434" s="8" t="s">
         <v>10</v>
       </c>
@@ -12100,7 +12107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="435" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B435" s="8" t="s">
         <v>5</v>
       </c>
@@ -12126,7 +12133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="436" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B436" s="8" t="s">
         <v>10</v>
       </c>
@@ -12152,7 +12159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="437" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B437" s="8" t="s">
         <v>5</v>
       </c>
@@ -12178,7 +12185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="438" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B438" s="8" t="s">
         <v>10</v>
       </c>
@@ -12204,7 +12211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="439" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B439" s="8" t="s">
         <v>10</v>
       </c>
@@ -12230,7 +12237,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="440" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B440" s="8" t="s">
         <v>10</v>
       </c>
@@ -12256,7 +12263,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="441" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B441" s="8" t="s">
         <v>10</v>
       </c>
@@ -12282,7 +12289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B442" s="8" t="s">
         <v>10</v>
       </c>
@@ -12308,7 +12315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="443" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B443" s="8" t="s">
         <v>10</v>
       </c>
@@ -12334,7 +12341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="444" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B444" s="8" t="s">
         <v>5</v>
       </c>
@@ -12360,7 +12367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="445" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B445" s="8" t="s">
         <v>5</v>
       </c>
@@ -12386,7 +12393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="446" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B446" s="8" t="s">
         <v>5</v>
       </c>
@@ -12412,7 +12419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="447" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B447" s="8" t="s">
         <v>5</v>
       </c>
@@ -12438,7 +12445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="448" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B448" s="8" t="s">
         <v>10</v>
       </c>
@@ -12464,7 +12471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="449" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B449" s="8" t="s">
         <v>5</v>
       </c>
@@ -12490,7 +12497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="450" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B450" s="8" t="s">
         <v>10</v>
       </c>
@@ -12516,7 +12523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="451" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B451" s="8" t="s">
         <v>10</v>
       </c>
@@ -12542,7 +12549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="452" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B452" s="8" t="s">
         <v>10</v>
       </c>
@@ -12568,7 +12575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="453" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B453" s="8" t="s">
         <v>10</v>
       </c>
@@ -12594,7 +12601,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="454" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B454" s="8" t="s">
         <v>5</v>
       </c>
@@ -12620,7 +12627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="455" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B455" s="8" t="s">
         <v>5</v>
       </c>
@@ -12646,7 +12653,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="456" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B456" s="8" t="s">
         <v>5</v>
       </c>
@@ -12672,7 +12679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="457" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B457" s="8" t="s">
         <v>10</v>
       </c>
@@ -12698,7 +12705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="458" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B458" s="8" t="s">
         <v>5</v>
       </c>
@@ -12724,7 +12731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="459" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B459" s="8" t="s">
         <v>10</v>
       </c>
@@ -12750,7 +12757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="460" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B460" s="8" t="s">
         <v>5</v>
       </c>
@@ -12776,7 +12783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="461" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B461" s="8" t="s">
         <v>10</v>
       </c>
@@ -12802,7 +12809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="462" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B462" s="8" t="s">
         <v>5</v>
       </c>
@@ -12828,7 +12835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="463" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B463" s="8" t="s">
         <v>10</v>
       </c>
@@ -12854,7 +12861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="464" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B464" s="8" t="s">
         <v>10</v>
       </c>
@@ -12880,7 +12887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="465" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B465" s="8" t="s">
         <v>10</v>
       </c>
@@ -12906,7 +12913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="466" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B466" s="8" t="s">
         <v>5</v>
       </c>
@@ -12932,7 +12939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="467" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B467" s="8" t="s">
         <v>5</v>
       </c>
@@ -12958,7 +12965,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="468" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B468" s="8" t="s">
         <v>10</v>
       </c>
@@ -12984,7 +12991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="469" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B469" s="8" t="s">
         <v>5</v>
       </c>
@@ -13010,7 +13017,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="470" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B470" s="8" t="s">
         <v>5</v>
       </c>
@@ -13036,7 +13043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="471" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B471" s="8" t="s">
         <v>10</v>
       </c>
@@ -13062,7 +13069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="472" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B472" s="8" t="s">
         <v>5</v>
       </c>
@@ -13088,7 +13095,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="473" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B473" s="8" t="s">
         <v>10</v>
       </c>
@@ -13114,7 +13121,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="474" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B474" s="8" t="s">
         <v>5</v>
       </c>
@@ -13140,7 +13147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="475" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B475" s="8" t="s">
         <v>5</v>
       </c>
@@ -13166,7 +13173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="476" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B476" s="8" t="s">
         <v>5</v>
       </c>
@@ -13192,7 +13199,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="477" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B477" s="8" t="s">
         <v>5</v>
       </c>
@@ -13218,7 +13225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="478" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B478" s="8" t="s">
         <v>5</v>
       </c>
@@ -13244,7 +13251,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="479" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B479" s="8" t="s">
         <v>5</v>
       </c>
@@ -13270,7 +13277,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="480" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B480" s="8" t="s">
         <v>10</v>
       </c>
@@ -13296,7 +13303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="481" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B481" s="8" t="s">
         <v>10</v>
       </c>
@@ -13322,7 +13329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="482" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B482" s="8" t="s">
         <v>5</v>
       </c>
@@ -13348,7 +13355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="483" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B483" s="8" t="s">
         <v>10</v>
       </c>
@@ -13374,7 +13381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="484" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B484" s="8" t="s">
         <v>10</v>
       </c>
@@ -13400,7 +13407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="485" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B485" s="8" t="s">
         <v>5</v>
       </c>
@@ -13426,7 +13433,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="486" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B486" s="8" t="s">
         <v>10</v>
       </c>
@@ -13452,7 +13459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="487" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B487" s="8" t="s">
         <v>10</v>
       </c>
@@ -13478,7 +13485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="488" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B488" s="8" t="s">
         <v>5</v>
       </c>
@@ -13504,7 +13511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="489" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B489" s="8" t="s">
         <v>10</v>
       </c>
@@ -13530,7 +13537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="490" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B490" s="8" t="s">
         <v>10</v>
       </c>
@@ -13556,7 +13563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="491" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B491" s="8" t="s">
         <v>5</v>
       </c>
@@ -13582,7 +13589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="492" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B492" s="8" t="s">
         <v>10</v>
       </c>
@@ -13608,7 +13615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="493" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B493" s="8" t="s">
         <v>10</v>
       </c>
@@ -13634,7 +13641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="494" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B494" s="8" t="s">
         <v>5</v>
       </c>
@@ -13660,7 +13667,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="495" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B495" s="8" t="s">
         <v>5</v>
       </c>
@@ -13686,7 +13693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="496" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B496" s="8" t="s">
         <v>5</v>
       </c>
@@ -13712,7 +13719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="497" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B497" s="8" t="s">
         <v>5</v>
       </c>
@@ -13738,7 +13745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="498" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B498" s="8" t="s">
         <v>5</v>
       </c>
@@ -13764,7 +13771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="499" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B499" s="8" t="s">
         <v>10</v>
       </c>
@@ -13790,7 +13797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="500" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B500" s="8" t="s">
         <v>5</v>
       </c>
@@ -13816,7 +13823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="501" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B501" s="8" t="s">
         <v>5</v>
       </c>
@@ -13842,7 +13849,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="502" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B502" s="8" t="s">
         <v>5</v>
       </c>
@@ -13868,7 +13875,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="503" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B503" s="8" t="s">
         <v>10</v>
       </c>
@@ -13894,7 +13901,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="504" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B504" s="8" t="s">
         <v>5</v>
       </c>
@@ -13920,7 +13927,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="505" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B505" s="8" t="s">
         <v>5</v>
       </c>
@@ -13946,7 +13953,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="506" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B506" s="8" t="s">
         <v>10</v>
       </c>
@@ -13972,7 +13979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="507" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B507" s="8" t="s">
         <v>5</v>
       </c>
@@ -13998,7 +14005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="508" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B508" s="8" t="s">
         <v>5</v>
       </c>
@@ -14024,7 +14031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="509" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B509" s="8" t="s">
         <v>5</v>
       </c>
@@ -14050,7 +14057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="510" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B510" s="8" t="s">
         <v>10</v>
       </c>
@@ -14076,7 +14083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="511" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B511" s="8" t="s">
         <v>10</v>
       </c>
@@ -14102,7 +14109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="512" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B512" s="8" t="s">
         <v>10</v>
       </c>
@@ -14128,7 +14135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="513" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B513" s="8" t="s">
         <v>5</v>
       </c>
@@ -14154,7 +14161,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="514" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B514" s="8" t="s">
         <v>10</v>
       </c>
@@ -14180,7 +14187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="515" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B515" s="8" t="s">
         <v>10</v>
       </c>
@@ -14206,7 +14213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="516" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B516" s="8" t="s">
         <v>10</v>
       </c>
@@ -14232,7 +14239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="517" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B517" s="8" t="s">
         <v>5</v>
       </c>
@@ -14258,7 +14265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="518" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B518" s="8" t="s">
         <v>5</v>
       </c>
@@ -14284,7 +14291,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="519" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B519" s="8" t="s">
         <v>5</v>
       </c>
@@ -14310,7 +14317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="520" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B520" s="8" t="s">
         <v>5</v>
       </c>
@@ -14336,7 +14343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="521" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B521" s="8" t="s">
         <v>5</v>
       </c>
@@ -14362,7 +14369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B522" s="8" t="s">
         <v>5</v>
       </c>
@@ -14388,7 +14395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="523" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B523" s="8" t="s">
         <v>5</v>
       </c>
@@ -14414,7 +14421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="524" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B524" s="8" t="s">
         <v>10</v>
       </c>
@@ -14440,7 +14447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="525" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B525" s="8" t="s">
         <v>5</v>
       </c>
@@ -14466,7 +14473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="526" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B526" s="8" t="s">
         <v>10</v>
       </c>
@@ -14492,7 +14499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="527" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B527" s="8" t="s">
         <v>10</v>
       </c>
@@ -14518,7 +14525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="528" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B528" s="8" t="s">
         <v>10</v>
       </c>
@@ -14544,7 +14551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="529" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B529" s="8" t="s">
         <v>10</v>
       </c>
@@ -14570,7 +14577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="530" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B530" s="8" t="s">
         <v>10</v>
       </c>
@@ -14596,7 +14603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="531" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B531" s="8" t="s">
         <v>5</v>
       </c>
@@ -14622,7 +14629,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="532" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B532" s="8" t="s">
         <v>5</v>
       </c>
@@ -14648,7 +14655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="533" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B533" s="8" t="s">
         <v>5</v>
       </c>
@@ -14674,7 +14681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="534" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B534" s="8" t="s">
         <v>5</v>
       </c>
@@ -14700,7 +14707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="535" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B535" s="8" t="s">
         <v>5</v>
       </c>
@@ -14726,7 +14733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="536" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B536" s="8" t="s">
         <v>10</v>
       </c>
@@ -14752,7 +14759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="537" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B537" s="8" t="s">
         <v>5</v>
       </c>
@@ -14778,7 +14785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="538" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B538" s="8" t="s">
         <v>10</v>
       </c>
@@ -14804,7 +14811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="539" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B539" s="8" t="s">
         <v>5</v>
       </c>
@@ -14830,7 +14837,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="540" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B540" s="8" t="s">
         <v>10</v>
       </c>
@@ -14856,7 +14863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="541" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B541" s="8" t="s">
         <v>5</v>
       </c>
@@ -14882,7 +14889,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="542" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B542" s="8" t="s">
         <v>10</v>
       </c>
@@ -14908,7 +14915,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="543" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B543" s="8" t="s">
         <v>10</v>
       </c>
@@ -14934,7 +14941,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="544" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B544" s="8" t="s">
         <v>10</v>
       </c>
@@ -14960,7 +14967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="545" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B545" s="8" t="s">
         <v>10</v>
       </c>
@@ -14986,7 +14993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="546" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B546" s="8" t="s">
         <v>5</v>
       </c>
@@ -15012,7 +15019,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="547" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B547" s="8" t="s">
         <v>5</v>
       </c>
@@ -15038,7 +15045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="548" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B548" s="8" t="s">
         <v>5</v>
       </c>
@@ -15064,7 +15071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="549" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B549" s="8" t="s">
         <v>10</v>
       </c>
@@ -15090,7 +15097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="550" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B550" s="8" t="s">
         <v>5</v>
       </c>
@@ -15116,7 +15123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="551" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B551" s="8" t="s">
         <v>10</v>
       </c>
@@ -15142,7 +15149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="552" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B552" s="8" t="s">
         <v>5</v>
       </c>
@@ -15168,7 +15175,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="553" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B553" s="8" t="s">
         <v>10</v>
       </c>
@@ -15194,7 +15201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="554" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B554" s="8" t="s">
         <v>10</v>
       </c>
@@ -15220,7 +15227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="555" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B555" s="8" t="s">
         <v>10</v>
       </c>
@@ -15246,7 +15253,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="556" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B556" s="8" t="s">
         <v>5</v>
       </c>
@@ -15272,7 +15279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="557" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B557" s="8" t="s">
         <v>10</v>
       </c>
@@ -15298,7 +15305,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="558" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B558" s="8" t="s">
         <v>10</v>
       </c>
@@ -15324,7 +15331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="559" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B559" s="8" t="s">
         <v>5</v>
       </c>
@@ -15350,7 +15357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="560" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B560" s="8" t="s">
         <v>5</v>
       </c>
@@ -15376,7 +15383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="561" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B561" s="8" t="s">
         <v>10</v>
       </c>
@@ -15402,7 +15409,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="562" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B562" s="8" t="s">
         <v>5</v>
       </c>
@@ -15428,7 +15435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="563" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B563" s="8" t="s">
         <v>10</v>
       </c>
@@ -15454,7 +15461,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="564" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B564" s="8" t="s">
         <v>5</v>
       </c>
@@ -15480,7 +15487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="565" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B565" s="8" t="s">
         <v>5</v>
       </c>
@@ -15506,7 +15513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="566" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B566" s="8" t="s">
         <v>10</v>
       </c>
@@ -15532,7 +15539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="567" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B567" s="8" t="s">
         <v>5</v>
       </c>
@@ -15558,7 +15565,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="568" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B568" s="8" t="s">
         <v>10</v>
       </c>
@@ -15584,7 +15591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="569" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B569" s="8" t="s">
         <v>10</v>
       </c>
@@ -15610,7 +15617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="570" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B570" s="8" t="s">
         <v>5</v>
       </c>
@@ -15636,7 +15643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="571" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B571" s="8" t="s">
         <v>5</v>
       </c>
@@ -15662,7 +15669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="572" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B572" s="8" t="s">
         <v>10</v>
       </c>
@@ -15688,7 +15695,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="573" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B573" s="8" t="s">
         <v>10</v>
       </c>
@@ -15714,7 +15721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="574" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B574" s="8" t="s">
         <v>10</v>
       </c>
@@ -15740,7 +15747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="575" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B575" s="8" t="s">
         <v>10</v>
       </c>
@@ -15766,7 +15773,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="576" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B576" s="8" t="s">
         <v>5</v>
       </c>
@@ -15792,7 +15799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="577" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B577" s="8" t="s">
         <v>5</v>
       </c>
@@ -15818,7 +15825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="578" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B578" s="8" t="s">
         <v>5</v>
       </c>
@@ -15844,7 +15851,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="579" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B579" s="8" t="s">
         <v>10</v>
       </c>
@@ -15870,7 +15877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="580" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B580" s="8" t="s">
         <v>10</v>
       </c>
@@ -15896,7 +15903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="581" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B581" s="8" t="s">
         <v>5</v>
       </c>
@@ -15922,7 +15929,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="582" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B582" s="8" t="s">
         <v>5</v>
       </c>
@@ -15948,7 +15955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="583" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B583" s="8" t="s">
         <v>5</v>
       </c>
@@ -15974,7 +15981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="584" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B584" s="8" t="s">
         <v>5</v>
       </c>
@@ -16000,7 +16007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="585" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B585" s="8" t="s">
         <v>5</v>
       </c>
@@ -16026,7 +16033,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="586" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B586" s="8" t="s">
         <v>5</v>
       </c>
@@ -16052,7 +16059,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="587" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B587" s="8" t="s">
         <v>5</v>
       </c>
@@ -16078,7 +16085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="588" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B588" s="8" t="s">
         <v>5</v>
       </c>
@@ -16104,7 +16111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="589" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B589" s="8" t="s">
         <v>5</v>
       </c>
@@ -16130,7 +16137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="590" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B590" s="8" t="s">
         <v>5</v>
       </c>
@@ -16156,7 +16163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="591" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B591" s="8" t="s">
         <v>5</v>
       </c>
@@ -16182,7 +16189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="592" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B592" s="8" t="s">
         <v>5</v>
       </c>
@@ -16208,7 +16215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="593" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B593" s="8" t="s">
         <v>5</v>
       </c>
@@ -16234,7 +16241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="594" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B594" s="8" t="s">
         <v>10</v>
       </c>
@@ -16260,7 +16267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="595" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B595" s="8" t="s">
         <v>10</v>
       </c>
@@ -16286,7 +16293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="596" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B596" s="8" t="s">
         <v>10</v>
       </c>
@@ -16312,7 +16319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="597" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B597" s="8" t="s">
         <v>5</v>
       </c>
@@ -16338,7 +16345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="598" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B598" s="8" t="s">
         <v>5</v>
       </c>
@@ -16364,7 +16371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="599" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B599" s="8" t="s">
         <v>5</v>
       </c>
@@ -16390,7 +16397,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="600" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B600" s="8" t="s">
         <v>10</v>
       </c>
@@ -16416,7 +16423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="601" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B601" s="8" t="s">
         <v>10</v>
       </c>
@@ -16442,7 +16449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="602" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B602" s="8" t="s">
         <v>5</v>
       </c>
@@ -16468,7 +16475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="603" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B603" s="8" t="s">
         <v>5</v>
       </c>
@@ -16494,7 +16501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="604" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B604" s="8" t="s">
         <v>5</v>
       </c>
@@ -16520,7 +16527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="605" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B605" s="8" t="s">
         <v>5</v>
       </c>
@@ -16546,7 +16553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="606" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B606" s="8" t="s">
         <v>5</v>
       </c>
@@ -16572,7 +16579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="607" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B607" s="8" t="s">
         <v>10</v>
       </c>
@@ -16598,7 +16605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="608" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B608" s="8" t="s">
         <v>10</v>
       </c>
@@ -16624,7 +16631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="609" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B609" s="8" t="s">
         <v>10</v>
       </c>
@@ -16650,7 +16657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="610" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B610" s="8" t="s">
         <v>5</v>
       </c>
@@ -16676,7 +16683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="611" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B611" s="8" t="s">
         <v>5</v>
       </c>
@@ -16702,7 +16709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="612" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B612" s="8" t="s">
         <v>5</v>
       </c>
@@ -16728,7 +16735,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="613" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B613" s="8" t="s">
         <v>5</v>
       </c>
@@ -16754,7 +16761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="614" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B614" s="8" t="s">
         <v>10</v>
       </c>
@@ -16780,7 +16787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="615" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B615" s="8" t="s">
         <v>5</v>
       </c>
@@ -16806,7 +16813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="616" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B616" s="8" t="s">
         <v>10</v>
       </c>
@@ -16832,7 +16839,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="617" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B617" s="8" t="s">
         <v>5</v>
       </c>
@@ -16858,7 +16865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="618" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B618" s="8" t="s">
         <v>5</v>
       </c>
@@ -16884,7 +16891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="619" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B619" s="8" t="s">
         <v>5</v>
       </c>
@@ -16910,7 +16917,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="620" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B620" s="8" t="s">
         <v>5</v>
       </c>
@@ -16936,7 +16943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="621" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B621" s="8" t="s">
         <v>10</v>
       </c>
@@ -16962,7 +16969,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="622" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B622" s="8" t="s">
         <v>10</v>
       </c>
@@ -16988,7 +16995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="623" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B623" s="8" t="s">
         <v>10</v>
       </c>
@@ -17014,7 +17021,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="624" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B624" s="8" t="s">
         <v>5</v>
       </c>
@@ -17040,7 +17047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="625" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B625" s="8" t="s">
         <v>10</v>
       </c>
@@ -17066,7 +17073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="626" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B626" s="8" t="s">
         <v>10</v>
       </c>
@@ -17092,7 +17099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="627" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B627" s="8" t="s">
         <v>10</v>
       </c>
@@ -17118,7 +17125,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="628" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B628" s="8" t="s">
         <v>5</v>
       </c>
@@ -17144,7 +17151,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="629" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B629" s="8" t="s">
         <v>10</v>
       </c>
@@ -17170,7 +17177,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="630" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B630" s="8" t="s">
         <v>10</v>
       </c>
@@ -17196,7 +17203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="631" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B631" s="8" t="s">
         <v>10</v>
       </c>
@@ -17222,7 +17229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="632" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B632" s="8" t="s">
         <v>10</v>
       </c>
@@ -17248,7 +17255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="633" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B633" s="8" t="s">
         <v>5</v>
       </c>
@@ -17274,7 +17281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="634" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B634" s="8" t="s">
         <v>10</v>
       </c>
@@ -17300,7 +17307,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="635" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B635" s="8" t="s">
         <v>10</v>
       </c>
@@ -17326,7 +17333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="636" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B636" s="8" t="s">
         <v>5</v>
       </c>
@@ -17352,7 +17359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="637" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B637" s="8" t="s">
         <v>5</v>
       </c>
@@ -17378,7 +17385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="638" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B638" s="8" t="s">
         <v>10</v>
       </c>
@@ -17404,7 +17411,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="639" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B639" s="8" t="s">
         <v>10</v>
       </c>
@@ -17430,7 +17437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="640" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B640" s="8" t="s">
         <v>5</v>
       </c>
@@ -17456,7 +17463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="641" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B641" s="8" t="s">
         <v>5</v>
       </c>
@@ -17482,7 +17489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="642" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B642" s="8" t="s">
         <v>10</v>
       </c>
@@ -17508,7 +17515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="643" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B643" s="8" t="s">
         <v>5</v>
       </c>
@@ -17534,7 +17541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="644" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B644" s="8" t="s">
         <v>10</v>
       </c>
@@ -17560,7 +17567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="645" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B645" s="8" t="s">
         <v>5</v>
       </c>
@@ -17586,7 +17593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="646" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B646" s="8" t="s">
         <v>5</v>
       </c>
@@ -17612,7 +17619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="647" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B647" s="8" t="s">
         <v>5</v>
       </c>
@@ -17638,7 +17645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="648" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B648" s="8" t="s">
         <v>10</v>
       </c>
@@ -17664,7 +17671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="649" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B649" s="8" t="s">
         <v>5</v>
       </c>
@@ -17690,7 +17697,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="650" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B650" s="8" t="s">
         <v>5</v>
       </c>
@@ -17716,7 +17723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="651" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B651" s="8" t="s">
         <v>5</v>
       </c>
@@ -17742,7 +17749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="652" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B652" s="8" t="s">
         <v>5</v>
       </c>
@@ -17768,7 +17775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="653" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B653" s="8" t="s">
         <v>5</v>
       </c>
@@ -17794,7 +17801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="654" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B654" s="8" t="s">
         <v>10</v>
       </c>
@@ -17820,7 +17827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="655" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B655" s="8" t="s">
         <v>5</v>
       </c>
@@ -17846,7 +17853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="656" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B656" s="8" t="s">
         <v>5</v>
       </c>
@@ -17872,7 +17879,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="657" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B657" s="8" t="s">
         <v>5</v>
       </c>
@@ -17898,7 +17905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="658" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B658" s="8" t="s">
         <v>5</v>
       </c>
@@ -17924,7 +17931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="659" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B659" s="8" t="s">
         <v>5</v>
       </c>
@@ -17950,7 +17957,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="660" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B660" s="8" t="s">
         <v>10</v>
       </c>
@@ -17976,7 +17983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="661" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B661" s="8" t="s">
         <v>10</v>
       </c>
@@ -18002,7 +18009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="662" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B662" s="8" t="s">
         <v>5</v>
       </c>
@@ -18028,7 +18035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="663" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B663" s="8" t="s">
         <v>10</v>
       </c>
@@ -18054,7 +18061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="664" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B664" s="8" t="s">
         <v>10</v>
       </c>
@@ -18080,7 +18087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="665" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B665" s="8" t="s">
         <v>10</v>
       </c>
@@ -18106,7 +18113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="666" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B666" s="8" t="s">
         <v>5</v>
       </c>
@@ -18132,7 +18139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="667" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B667" s="8" t="s">
         <v>5</v>
       </c>
@@ -18158,7 +18165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="668" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B668" s="8" t="s">
         <v>10</v>
       </c>
@@ -18184,7 +18191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="669" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B669" s="8" t="s">
         <v>5</v>
       </c>
@@ -18210,7 +18217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="670" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B670" s="8" t="s">
         <v>5</v>
       </c>
@@ -18236,7 +18243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="671" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B671" s="8" t="s">
         <v>5</v>
       </c>
@@ -18262,7 +18269,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="672" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B672" s="8" t="s">
         <v>10</v>
       </c>
@@ -18288,7 +18295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="673" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B673" s="8" t="s">
         <v>10</v>
       </c>
@@ -18314,7 +18321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="674" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B674" s="8" t="s">
         <v>5</v>
       </c>
@@ -18340,7 +18347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="675" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B675" s="8" t="s">
         <v>10</v>
       </c>
@@ -18366,7 +18373,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="676" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B676" s="8" t="s">
         <v>5</v>
       </c>
@@ -18392,7 +18399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="677" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B677" s="8" t="s">
         <v>5</v>
       </c>
@@ -18418,7 +18425,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="678" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B678" s="8" t="s">
         <v>5</v>
       </c>
@@ -18444,7 +18451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="679" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B679" s="8" t="s">
         <v>5</v>
       </c>
@@ -18470,7 +18477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="680" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B680" s="8" t="s">
         <v>5</v>
       </c>
@@ -18496,7 +18503,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="681" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B681" s="8" t="s">
         <v>5</v>
       </c>
@@ -18522,7 +18529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="682" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B682" s="8" t="s">
         <v>10</v>
       </c>
@@ -18548,7 +18555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="683" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B683" s="8" t="s">
         <v>10</v>
       </c>
@@ -18574,7 +18581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="684" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B684" s="8" t="s">
         <v>5</v>
       </c>
@@ -18600,7 +18607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="685" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B685" s="8" t="s">
         <v>10</v>
       </c>
@@ -18626,7 +18633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="686" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B686" s="8" t="s">
         <v>10</v>
       </c>
@@ -18652,7 +18659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="687" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B687" s="8" t="s">
         <v>5</v>
       </c>
@@ -18678,7 +18685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="688" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B688" s="8" t="s">
         <v>10</v>
       </c>
@@ -18704,7 +18711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="689" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B689" s="8" t="s">
         <v>5</v>
       </c>
@@ -18730,7 +18737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="690" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B690" s="8" t="s">
         <v>10</v>
       </c>
@@ -18756,7 +18763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="691" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B691" s="8" t="s">
         <v>10</v>
       </c>
@@ -18782,7 +18789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="692" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B692" s="8" t="s">
         <v>10</v>
       </c>
@@ -18808,7 +18815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="693" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B693" s="8" t="s">
         <v>10</v>
       </c>
@@ -18834,7 +18841,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="694" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B694" s="8" t="s">
         <v>5</v>
       </c>
@@ -18860,7 +18867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="695" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B695" s="8" t="s">
         <v>5</v>
       </c>
@@ -18886,7 +18893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="696" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B696" s="8" t="s">
         <v>5</v>
       </c>
@@ -18912,7 +18919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="697" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B697" s="8" t="s">
         <v>5</v>
       </c>
@@ -18938,7 +18945,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="698" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B698" s="8" t="s">
         <v>5</v>
       </c>
@@ -18964,7 +18971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="699" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B699" s="8" t="s">
         <v>5</v>
       </c>
@@ -18990,7 +18997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="700" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B700" s="8" t="s">
         <v>5</v>
       </c>
@@ -19016,7 +19023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="701" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B701" s="8" t="s">
         <v>5</v>
       </c>
@@ -19042,7 +19049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="702" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B702" s="8" t="s">
         <v>5</v>
       </c>
@@ -19068,7 +19075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="703" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B703" s="8" t="s">
         <v>10</v>
       </c>
@@ -19094,7 +19101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="704" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B704" s="8" t="s">
         <v>5</v>
       </c>
@@ -19120,7 +19127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="705" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B705" s="8" t="s">
         <v>5</v>
       </c>
@@ -19146,7 +19153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="706" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B706" s="8" t="s">
         <v>10</v>
       </c>
@@ -19172,7 +19179,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="707" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B707" s="8" t="s">
         <v>5</v>
       </c>
@@ -19198,7 +19205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="708" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B708" s="8" t="s">
         <v>5</v>
       </c>
@@ -19224,7 +19231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="709" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B709" s="8" t="s">
         <v>10</v>
       </c>
@@ -19250,7 +19257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="710" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B710" s="8" t="s">
         <v>10</v>
       </c>
@@ -19276,7 +19283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="711" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B711" s="8" t="s">
         <v>10</v>
       </c>
@@ -19302,7 +19309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="712" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B712" s="8" t="s">
         <v>10</v>
       </c>
@@ -19328,7 +19335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="713" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B713" s="8" t="s">
         <v>5</v>
       </c>
@@ -19354,7 +19361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="714" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B714" s="8" t="s">
         <v>10</v>
       </c>
@@ -19380,7 +19387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="715" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B715" s="8" t="s">
         <v>5</v>
       </c>
@@ -19406,7 +19413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="716" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B716" s="8" t="s">
         <v>5</v>
       </c>
@@ -19432,7 +19439,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="717" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B717" s="8" t="s">
         <v>10</v>
       </c>
@@ -19458,7 +19465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="718" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B718" s="8" t="s">
         <v>5</v>
       </c>
@@ -19484,7 +19491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="719" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B719" s="8" t="s">
         <v>5</v>
       </c>
@@ -19510,7 +19517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="720" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B720" s="8" t="s">
         <v>10</v>
       </c>
@@ -19536,7 +19543,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="721" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B721" s="8" t="s">
         <v>5</v>
       </c>
@@ -19562,7 +19569,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="722" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B722" s="8" t="s">
         <v>5</v>
       </c>
@@ -19588,7 +19595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="723" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B723" s="8" t="s">
         <v>10</v>
       </c>
@@ -19614,7 +19621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="724" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B724" s="8" t="s">
         <v>5</v>
       </c>
@@ -19640,7 +19647,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="725" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B725" s="8" t="s">
         <v>10</v>
       </c>
@@ -19666,7 +19673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="726" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B726" s="8" t="s">
         <v>5</v>
       </c>
@@ -19692,7 +19699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="727" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B727" s="8" t="s">
         <v>10</v>
       </c>
@@ -19718,7 +19725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="728" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B728" s="8" t="s">
         <v>10</v>
       </c>
@@ -19744,7 +19751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="729" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B729" s="8" t="s">
         <v>10</v>
       </c>
@@ -19770,7 +19777,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="730" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B730" s="8" t="s">
         <v>5</v>
       </c>
@@ -19796,7 +19803,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="731" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B731" s="8" t="s">
         <v>10</v>
       </c>
@@ -19822,7 +19829,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="732" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B732" s="8" t="s">
         <v>5</v>
       </c>
@@ -19848,7 +19855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="733" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B733" s="8" t="s">
         <v>10</v>
       </c>
@@ -19874,7 +19881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="734" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B734" s="8" t="s">
         <v>5</v>
       </c>
@@ -19900,7 +19907,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="735" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B735" s="8" t="s">
         <v>10</v>
       </c>
@@ -19926,7 +19933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="736" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B736" s="8" t="s">
         <v>5</v>
       </c>
@@ -19952,7 +19959,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="737" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B737" s="8" t="s">
         <v>10</v>
       </c>
@@ -19978,7 +19985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="738" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B738" s="8" t="s">
         <v>5</v>
       </c>
@@ -20004,7 +20011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="739" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B739" s="8" t="s">
         <v>10</v>
       </c>
@@ -20030,7 +20037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="740" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B740" s="8" t="s">
         <v>10</v>
       </c>
@@ -20056,7 +20063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="741" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B741" s="8" t="s">
         <v>5</v>
       </c>
@@ -20082,7 +20089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="742" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B742" s="8" t="s">
         <v>10</v>
       </c>
@@ -20108,7 +20115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="743" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B743" s="8" t="s">
         <v>10</v>
       </c>
@@ -20134,7 +20141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="744" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B744" s="8" t="s">
         <v>10</v>
       </c>
@@ -20160,7 +20167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="745" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B745" s="8" t="s">
         <v>5</v>
       </c>
@@ -20186,7 +20193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="746" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B746" s="8" t="s">
         <v>5</v>
       </c>
@@ -20212,7 +20219,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="747" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B747" s="8" t="s">
         <v>5</v>
       </c>
@@ -20238,7 +20245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="748" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B748" s="8" t="s">
         <v>10</v>
       </c>
@@ -20264,7 +20271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="749" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B749" s="8" t="s">
         <v>10</v>
       </c>
@@ -20290,7 +20297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="750" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B750" s="8" t="s">
         <v>10</v>
       </c>
@@ -20316,7 +20323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="751" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B751" s="8" t="s">
         <v>10</v>
       </c>
@@ -20342,7 +20349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="752" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B752" s="8" t="s">
         <v>5</v>
       </c>
@@ -20368,7 +20375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="753" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B753" s="8" t="s">
         <v>10</v>
       </c>
@@ -20394,7 +20401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="754" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B754" s="8" t="s">
         <v>10</v>
       </c>
@@ -20420,7 +20427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="755" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B755" s="8" t="s">
         <v>10</v>
       </c>
@@ -20446,7 +20453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="756" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B756" s="8" t="s">
         <v>10</v>
       </c>
@@ -20472,7 +20479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="757" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B757" s="8" t="s">
         <v>5</v>
       </c>
@@ -20498,7 +20505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="758" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B758" s="8" t="s">
         <v>10</v>
       </c>
@@ -20524,7 +20531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="759" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B759" s="8" t="s">
         <v>5</v>
       </c>
@@ -20550,7 +20557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="760" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B760" s="8" t="s">
         <v>10</v>
       </c>
@@ -20576,7 +20583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="761" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B761" s="8" t="s">
         <v>10</v>
       </c>
@@ -20602,7 +20609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="762" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B762" s="8" t="s">
         <v>5</v>
       </c>
@@ -20628,7 +20635,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="763" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B763" s="8" t="s">
         <v>10</v>
       </c>
@@ -20654,7 +20661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="764" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B764" s="8" t="s">
         <v>5</v>
       </c>
@@ -20680,7 +20687,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="765" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B765" s="8" t="s">
         <v>5</v>
       </c>
@@ -20706,7 +20713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="766" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B766" s="8" t="s">
         <v>10</v>
       </c>
@@ -20732,7 +20739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="767" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B767" s="8" t="s">
         <v>5</v>
       </c>
@@ -20758,7 +20765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="768" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B768" s="8" t="s">
         <v>10</v>
       </c>
@@ -20784,7 +20791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="769" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B769" s="8" t="s">
         <v>5</v>
       </c>
@@ -20810,7 +20817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="770" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B770" s="8" t="s">
         <v>5</v>
       </c>
@@ -20836,7 +20843,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="771" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B771" s="8" t="s">
         <v>10</v>
       </c>
@@ -20862,7 +20869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="772" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B772" s="8" t="s">
         <v>5</v>
       </c>
@@ -20888,7 +20895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="773" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B773" s="8" t="s">
         <v>10</v>
       </c>
@@ -20914,7 +20921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="774" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B774" s="8" t="s">
         <v>10</v>
       </c>
@@ -20940,7 +20947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="775" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B775" s="8" t="s">
         <v>10</v>
       </c>
@@ -20966,7 +20973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="776" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B776" s="8" t="s">
         <v>5</v>
       </c>
@@ -20992,7 +20999,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="777" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B777" s="8" t="s">
         <v>5</v>
       </c>
@@ -21018,7 +21025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="778" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B778" s="8" t="s">
         <v>10</v>
       </c>
@@ -21044,7 +21051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="779" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B779" s="8" t="s">
         <v>5</v>
       </c>
@@ -21070,7 +21077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="780" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B780" s="8" t="s">
         <v>5</v>
       </c>
@@ -21096,7 +21103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="781" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B781" s="8" t="s">
         <v>5</v>
       </c>
@@ -21122,7 +21129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="782" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B782" s="8" t="s">
         <v>5</v>
       </c>
@@ -21148,7 +21155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="783" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B783" s="8" t="s">
         <v>10</v>
       </c>
@@ -21174,7 +21181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="784" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B784" s="8" t="s">
         <v>5</v>
       </c>
@@ -21200,7 +21207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="785" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B785" s="8" t="s">
         <v>5</v>
       </c>
@@ -21226,7 +21233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="786" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B786" s="8" t="s">
         <v>5</v>
       </c>
@@ -21252,7 +21259,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="787" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B787" s="8" t="s">
         <v>5</v>
       </c>
@@ -21278,7 +21285,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="788" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B788" s="8" t="s">
         <v>10</v>
       </c>
@@ -21304,7 +21311,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="789" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B789" s="8" t="s">
         <v>5</v>
       </c>
@@ -21330,7 +21337,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="790" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B790" s="8" t="s">
         <v>5</v>
       </c>
@@ -21356,7 +21363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="791" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B791" s="8" t="s">
         <v>5</v>
       </c>
@@ -21382,7 +21389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="792" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B792" s="8" t="s">
         <v>10</v>
       </c>
@@ -21408,7 +21415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="793" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B793" s="8" t="s">
         <v>5</v>
       </c>
@@ -21434,7 +21441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="794" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B794" s="8" t="s">
         <v>5</v>
       </c>
@@ -21460,7 +21467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="795" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B795" s="8" t="s">
         <v>5</v>
       </c>
@@ -21486,7 +21493,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="796" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B796" s="8" t="s">
         <v>10</v>
       </c>
@@ -21512,7 +21519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="797" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B797" s="8" t="s">
         <v>10</v>
       </c>
@@ -21538,7 +21545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="798" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B798" s="8" t="s">
         <v>5</v>
       </c>
@@ -21564,7 +21571,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="799" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B799" s="8" t="s">
         <v>5</v>
       </c>
@@ -21590,7 +21597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="800" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B800" s="8" t="s">
         <v>10</v>
       </c>
@@ -21616,7 +21623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="801" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B801" s="8" t="s">
         <v>5</v>
       </c>
@@ -21642,7 +21649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="802" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B802" s="8" t="s">
         <v>10</v>
       </c>
@@ -21668,7 +21675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="803" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B803" s="8" t="s">
         <v>5</v>
       </c>
@@ -21694,7 +21701,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="804" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B804" s="8" t="s">
         <v>10</v>
       </c>
@@ -21720,7 +21727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="805" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B805" s="8" t="s">
         <v>10</v>
       </c>
@@ -21746,7 +21753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="806" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B806" s="8" t="s">
         <v>5</v>
       </c>
@@ -21772,7 +21779,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="807" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B807" s="8" t="s">
         <v>5</v>
       </c>
@@ -21798,7 +21805,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="808" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B808" s="8" t="s">
         <v>5</v>
       </c>
@@ -21824,7 +21831,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="809" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B809" s="8" t="s">
         <v>10</v>
       </c>
@@ -21850,7 +21857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="810" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B810" s="8" t="s">
         <v>5</v>
       </c>
@@ -21876,7 +21883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="811" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B811" s="8" t="s">
         <v>5</v>
       </c>
@@ -21902,7 +21909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="812" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B812" s="8" t="s">
         <v>10</v>
       </c>
@@ -21928,7 +21935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="813" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B813" s="8" t="s">
         <v>10</v>
       </c>
@@ -21954,7 +21961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="814" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B814" s="8" t="s">
         <v>10</v>
       </c>
@@ -21980,7 +21987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="815" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B815" s="8" t="s">
         <v>10</v>
       </c>
@@ -22006,7 +22013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="816" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B816" s="8" t="s">
         <v>5</v>
       </c>
@@ -22032,7 +22039,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="817" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B817" s="8" t="s">
         <v>10</v>
       </c>
@@ -22058,7 +22065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="818" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B818" s="8" t="s">
         <v>5</v>
       </c>
@@ -22084,7 +22091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="819" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B819" s="8" t="s">
         <v>10</v>
       </c>
@@ -22110,7 +22117,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="820" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B820" s="8" t="s">
         <v>5</v>
       </c>
@@ -22136,7 +22143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="821" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B821" s="8" t="s">
         <v>10</v>
       </c>
@@ -22162,7 +22169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="822" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B822" s="8" t="s">
         <v>5</v>
       </c>
@@ -22188,7 +22195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="823" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B823" s="8" t="s">
         <v>5</v>
       </c>
@@ -22214,7 +22221,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="824" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B824" s="8" t="s">
         <v>5</v>
       </c>
@@ -22240,7 +22247,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="825" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B825" s="8" t="s">
         <v>5</v>
       </c>
@@ -22266,7 +22273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="826" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B826" s="8" t="s">
         <v>10</v>
       </c>
@@ -22292,7 +22299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="827" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B827" s="8" t="s">
         <v>5</v>
       </c>
@@ -22318,7 +22325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="828" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B828" s="8" t="s">
         <v>5</v>
       </c>
@@ -22344,7 +22351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="829" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B829" s="8" t="s">
         <v>10</v>
       </c>
@@ -22370,7 +22377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="830" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B830" s="8" t="s">
         <v>5</v>
       </c>
@@ -22396,7 +22403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="831" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B831" s="8" t="s">
         <v>5</v>
       </c>
@@ -22422,7 +22429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="832" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B832" s="8" t="s">
         <v>5</v>
       </c>
@@ -22448,7 +22455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="833" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B833" s="8" t="s">
         <v>10</v>
       </c>
@@ -22474,7 +22481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="834" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B834" s="8" t="s">
         <v>5</v>
       </c>
@@ -22500,7 +22507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="835" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B835" s="8" t="s">
         <v>5</v>
       </c>
@@ -22526,7 +22533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="836" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B836" s="8" t="s">
         <v>10</v>
       </c>
@@ -22552,7 +22559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="837" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B837" s="8" t="s">
         <v>5</v>
       </c>
@@ -22578,7 +22585,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="838" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B838" s="8" t="s">
         <v>10</v>
       </c>
@@ -22604,7 +22611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="839" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B839" s="8" t="s">
         <v>5</v>
       </c>
@@ -22630,7 +22637,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="840" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B840" s="8" t="s">
         <v>10</v>
       </c>
@@ -22656,7 +22663,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="841" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B841" s="8" t="s">
         <v>5</v>
       </c>
@@ -22682,7 +22689,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="842" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B842" s="8" t="s">
         <v>10</v>
       </c>
@@ -22708,7 +22715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="843" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B843" s="8" t="s">
         <v>5</v>
       </c>
@@ -22734,7 +22741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="844" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B844" s="8" t="s">
         <v>5</v>
       </c>
@@ -22760,7 +22767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="845" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B845" s="8" t="s">
         <v>10</v>
       </c>
@@ -22786,7 +22793,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="846" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B846" s="8" t="s">
         <v>5</v>
       </c>
@@ -22812,7 +22819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="847" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B847" s="8" t="s">
         <v>10</v>
       </c>
@@ -22838,7 +22845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="848" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B848" s="8" t="s">
         <v>5</v>
       </c>
@@ -22864,7 +22871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="849" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B849" s="8" t="s">
         <v>10</v>
       </c>
@@ -22890,7 +22897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="850" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B850" s="8" t="s">
         <v>10</v>
       </c>
@@ -22916,7 +22923,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="851" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B851" s="8" t="s">
         <v>10</v>
       </c>
@@ -22942,7 +22949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="852" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B852" s="8" t="s">
         <v>5</v>
       </c>
@@ -22968,7 +22975,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="853" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B853" s="8" t="s">
         <v>10</v>
       </c>
@@ -22994,7 +23001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="854" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B854" s="8" t="s">
         <v>10</v>
       </c>
@@ -23020,7 +23027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="855" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B855" s="8" t="s">
         <v>5</v>
       </c>
@@ -23046,7 +23053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="856" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B856" s="8" t="s">
         <v>5</v>
       </c>
@@ -23072,7 +23079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="857" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B857" s="8" t="s">
         <v>10</v>
       </c>
@@ -23098,7 +23105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="858" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B858" s="8" t="s">
         <v>10</v>
       </c>
@@ -23124,7 +23131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="859" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B859" s="8" t="s">
         <v>5</v>
       </c>
@@ -23150,7 +23157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="860" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B860" s="8" t="s">
         <v>10</v>
       </c>
@@ -23176,7 +23183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="861" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B861" s="8" t="s">
         <v>5</v>
       </c>
@@ -23202,7 +23209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="862" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B862" s="8" t="s">
         <v>10</v>
       </c>
@@ -23228,7 +23235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="863" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B863" s="8" t="s">
         <v>10</v>
       </c>
@@ -23254,7 +23261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="864" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B864" s="8" t="s">
         <v>5</v>
       </c>
@@ -23280,7 +23287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="865" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B865" s="8" t="s">
         <v>5</v>
       </c>
@@ -23306,7 +23313,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="866" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B866" s="8" t="s">
         <v>10</v>
       </c>
@@ -23332,7 +23339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="867" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B867" s="8" t="s">
         <v>5</v>
       </c>
@@ -23358,7 +23365,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="868" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B868" s="8" t="s">
         <v>10</v>
       </c>
@@ -23384,7 +23391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="869" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B869" s="8" t="s">
         <v>10</v>
       </c>
@@ -23410,7 +23417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="870" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B870" s="8" t="s">
         <v>10</v>
       </c>
@@ -23436,7 +23443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="871" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B871" s="8" t="s">
         <v>10</v>
       </c>
@@ -23462,7 +23469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="872" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B872" s="8" t="s">
         <v>10</v>
       </c>
@@ -23488,7 +23495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="873" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B873" s="8" t="s">
         <v>10</v>
       </c>
@@ -23514,7 +23521,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="874" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B874" s="8" t="s">
         <v>10</v>
       </c>
@@ -23540,7 +23547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="875" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B875" s="8" t="s">
         <v>5</v>
       </c>
@@ -23566,7 +23573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="876" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B876" s="8" t="s">
         <v>10</v>
       </c>
@@ -23592,7 +23599,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="877" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B877" s="8" t="s">
         <v>10</v>
       </c>
@@ -23618,7 +23625,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="878" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B878" s="8" t="s">
         <v>5</v>
       </c>
@@ -23644,7 +23651,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="879" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B879" s="8" t="s">
         <v>10</v>
       </c>
@@ -23670,7 +23677,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="880" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B880" s="8" t="s">
         <v>10</v>
       </c>
@@ -23696,7 +23703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="881" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B881" s="8" t="s">
         <v>10</v>
       </c>
@@ -23722,7 +23729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="882" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B882" s="8" t="s">
         <v>5</v>
       </c>
@@ -23748,7 +23755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="883" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B883" s="8" t="s">
         <v>5</v>
       </c>
@@ -23774,7 +23781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="884" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B884" s="8" t="s">
         <v>10</v>
       </c>
@@ -23800,7 +23807,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="885" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B885" s="8" t="s">
         <v>5</v>
       </c>
@@ -23826,7 +23833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="886" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B886" s="8" t="s">
         <v>5</v>
       </c>
@@ -23852,7 +23859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="887" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B887" s="8" t="s">
         <v>10</v>
       </c>
@@ -23878,7 +23885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="888" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B888" s="8" t="s">
         <v>5</v>
       </c>
@@ -23904,7 +23911,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="889" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B889" s="8" t="s">
         <v>5</v>
       </c>
@@ -23930,7 +23937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="890" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B890" s="8" t="s">
         <v>5</v>
       </c>
@@ -23956,7 +23963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="891" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B891" s="8" t="s">
         <v>10</v>
       </c>
@@ -23982,7 +23989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="892" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B892" s="8" t="s">
         <v>5</v>
       </c>
@@ -24008,7 +24015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="893" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B893" s="8" t="s">
         <v>10</v>
       </c>
@@ -24034,7 +24041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="894" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B894" s="8" t="s">
         <v>5</v>
       </c>
@@ -24060,7 +24067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="895" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B895" s="8" t="s">
         <v>5</v>
       </c>
@@ -24086,7 +24093,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="896" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B896" s="8" t="s">
         <v>5</v>
       </c>
@@ -24112,7 +24119,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="897" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B897" s="8" t="s">
         <v>10</v>
       </c>
@@ -24138,7 +24145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="898" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B898" s="8" t="s">
         <v>5</v>
       </c>
@@ -24164,7 +24171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="899" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B899" s="8" t="s">
         <v>5</v>
       </c>
@@ -24190,7 +24197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="900" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B900" s="8" t="s">
         <v>10</v>
       </c>
@@ -24216,7 +24223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="901" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B901" s="8" t="s">
         <v>5</v>
       </c>
@@ -24242,7 +24249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="902" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B902" s="8" t="s">
         <v>10</v>
       </c>
@@ -24268,7 +24275,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="903" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B903" s="8" t="s">
         <v>5</v>
       </c>
@@ -24294,7 +24301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="904" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B904" s="8" t="s">
         <v>10</v>
       </c>
@@ -24320,7 +24327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="905" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B905" s="8" t="s">
         <v>5</v>
       </c>
@@ -24346,7 +24353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="906" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B906" s="8" t="s">
         <v>5</v>
       </c>
@@ -24372,7 +24379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="907" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B907" s="8" t="s">
         <v>5</v>
       </c>
@@ -24398,7 +24405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="908" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B908" s="8" t="s">
         <v>5</v>
       </c>
@@ -24424,7 +24431,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="909" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B909" s="8" t="s">
         <v>10</v>
       </c>
@@ -24450,7 +24457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="910" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B910" s="8" t="s">
         <v>10</v>
       </c>
@@ -24476,7 +24483,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="911" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B911" s="8" t="s">
         <v>5</v>
       </c>
@@ -24502,7 +24509,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="912" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B912" s="8" t="s">
         <v>5</v>
       </c>
@@ -24528,7 +24535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="913" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B913" s="8" t="s">
         <v>10</v>
       </c>
@@ -24554,7 +24561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="914" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B914" s="8" t="s">
         <v>10</v>
       </c>
@@ -24580,7 +24587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="915" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B915" s="8" t="s">
         <v>5</v>
       </c>
@@ -24606,7 +24613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="916" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B916" s="8" t="s">
         <v>5</v>
       </c>
@@ -24632,7 +24639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="917" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B917" s="8" t="s">
         <v>5</v>
       </c>
@@ -24658,7 +24665,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="918" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B918" s="8" t="s">
         <v>5</v>
       </c>
@@ -24684,7 +24691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="919" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B919" s="8" t="s">
         <v>5</v>
       </c>
@@ -24710,7 +24717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="920" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B920" s="8" t="s">
         <v>10</v>
       </c>
@@ -24736,7 +24743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="921" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B921" s="8" t="s">
         <v>5</v>
       </c>
@@ -24762,7 +24769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="922" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B922" s="8" t="s">
         <v>5</v>
       </c>
@@ -24788,7 +24795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="923" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B923" s="8" t="s">
         <v>10</v>
       </c>
@@ -24814,7 +24821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="924" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B924" s="8" t="s">
         <v>10</v>
       </c>
@@ -24840,7 +24847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="925" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B925" s="8" t="s">
         <v>5</v>
       </c>
@@ -24866,7 +24873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="926" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B926" s="8" t="s">
         <v>10</v>
       </c>
@@ -24892,7 +24899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="927" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B927" s="8" t="s">
         <v>5</v>
       </c>
@@ -24918,7 +24925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="928" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B928" s="8" t="s">
         <v>10</v>
       </c>
@@ -24944,7 +24951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="929" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B929" s="8" t="s">
         <v>10</v>
       </c>
@@ -24970,7 +24977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="930" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B930" s="8" t="s">
         <v>10</v>
       </c>
@@ -24996,7 +25003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="931" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B931" s="8" t="s">
         <v>5</v>
       </c>
@@ -25022,7 +25029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="932" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B932" s="8" t="s">
         <v>10</v>
       </c>
@@ -25048,7 +25055,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="933" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B933" s="8" t="s">
         <v>5</v>
       </c>
@@ -25074,7 +25081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="934" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B934" s="8" t="s">
         <v>10</v>
       </c>
@@ -25100,7 +25107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="935" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B935" s="8" t="s">
         <v>10</v>
       </c>
@@ -25126,7 +25133,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="936" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B936" s="8" t="s">
         <v>10</v>
       </c>
@@ -25152,7 +25159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="937" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B937" s="8" t="s">
         <v>10</v>
       </c>
@@ -25178,7 +25185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="938" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B938" s="8" t="s">
         <v>10</v>
       </c>
@@ -25204,7 +25211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="939" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B939" s="8" t="s">
         <v>10</v>
       </c>
@@ -25230,7 +25237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="940" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B940" s="8" t="s">
         <v>10</v>
       </c>
@@ -25256,7 +25263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="941" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B941" s="8" t="s">
         <v>5</v>
       </c>
@@ -25282,7 +25289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="942" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B942" s="8" t="s">
         <v>10</v>
       </c>
@@ -25308,7 +25315,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="943" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B943" s="8" t="s">
         <v>10</v>
       </c>
@@ -25334,7 +25341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="944" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B944" s="8" t="s">
         <v>10</v>
       </c>
@@ -25360,7 +25367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="945" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B945" s="8" t="s">
         <v>5</v>
       </c>
@@ -25386,7 +25393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="946" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B946" s="8" t="s">
         <v>10</v>
       </c>
@@ -25412,7 +25419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="947" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B947" s="8" t="s">
         <v>10</v>
       </c>
@@ -25438,7 +25445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="948" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B948" s="8" t="s">
         <v>5</v>
       </c>
@@ -25464,7 +25471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="949" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B949" s="8" t="s">
         <v>5</v>
       </c>
@@ -25490,7 +25497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="950" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B950" s="8" t="s">
         <v>10</v>
       </c>
@@ -25516,7 +25523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="951" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B951" s="8" t="s">
         <v>5</v>
       </c>
@@ -25542,7 +25549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="952" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B952" s="8" t="s">
         <v>10</v>
       </c>
@@ -25568,7 +25575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="953" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B953" s="8" t="s">
         <v>5</v>
       </c>
@@ -25594,7 +25601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="954" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B954" s="8" t="s">
         <v>10</v>
       </c>
@@ -25620,7 +25627,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="955" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B955" s="8" t="s">
         <v>5</v>
       </c>
@@ -25646,7 +25653,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="956" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B956" s="8" t="s">
         <v>5</v>
       </c>
@@ -25672,7 +25679,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="957" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B957" s="8" t="s">
         <v>10</v>
       </c>
@@ -25698,7 +25705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="958" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B958" s="8" t="s">
         <v>5</v>
       </c>
@@ -25724,7 +25731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="959" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B959" s="8" t="s">
         <v>10</v>
       </c>
@@ -25750,7 +25757,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="960" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B960" s="8" t="s">
         <v>10</v>
       </c>
@@ -25776,7 +25783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="961" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B961" s="8" t="s">
         <v>5</v>
       </c>
@@ -25802,7 +25809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="962" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B962" s="8" t="s">
         <v>5</v>
       </c>
@@ -25828,7 +25835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="963" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B963" s="8" t="s">
         <v>10</v>
       </c>
@@ -25854,7 +25861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="964" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B964" s="8" t="s">
         <v>5</v>
       </c>
@@ -25880,7 +25887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="965" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B965" s="8" t="s">
         <v>5</v>
       </c>
@@ -25906,7 +25913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="966" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B966" s="8" t="s">
         <v>5</v>
       </c>
@@ -25932,7 +25939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="967" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B967" s="8" t="s">
         <v>5</v>
       </c>
@@ -25958,7 +25965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="968" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B968" s="8" t="s">
         <v>10</v>
       </c>
@@ -25984,7 +25991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="969" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B969" s="8" t="s">
         <v>5</v>
       </c>
@@ -26010,7 +26017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="970" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B970" s="8" t="s">
         <v>10</v>
       </c>
@@ -26036,7 +26043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="971" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B971" s="8" t="s">
         <v>10</v>
       </c>
@@ -26062,7 +26069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="972" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B972" s="8" t="s">
         <v>5</v>
       </c>
@@ -26088,7 +26095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="973" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B973" s="8" t="s">
         <v>5</v>
       </c>
@@ -26114,7 +26121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="974" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B974" s="8" t="s">
         <v>5</v>
       </c>
@@ -26140,7 +26147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="975" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B975" s="8" t="s">
         <v>10</v>
       </c>
@@ -26166,7 +26173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="976" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B976" s="8" t="s">
         <v>5</v>
       </c>
@@ -26192,7 +26199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="977" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B977" s="8" t="s">
         <v>5</v>
       </c>
@@ -26218,7 +26225,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="978" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B978" s="8" t="s">
         <v>5</v>
       </c>
@@ -26244,7 +26251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="979" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B979" s="8" t="s">
         <v>5</v>
       </c>
@@ -26270,7 +26277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="980" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B980" s="8" t="s">
         <v>10</v>
       </c>
@@ -26296,7 +26303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="981" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B981" s="8" t="s">
         <v>10</v>
       </c>
@@ -26322,7 +26329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="982" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B982" s="8" t="s">
         <v>10</v>
       </c>
@@ -26348,7 +26355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="983" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B983" s="8" t="s">
         <v>5</v>
       </c>
@@ -26374,7 +26381,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="984" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B984" s="8" t="s">
         <v>5</v>
       </c>
@@ -26400,7 +26407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="985" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B985" s="8" t="s">
         <v>10</v>
       </c>
@@ -26426,7 +26433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="986" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B986" s="8" t="s">
         <v>10</v>
       </c>
@@ -26452,7 +26459,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="987" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B987" s="8" t="s">
         <v>5</v>
       </c>
@@ -26478,7 +26485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="988" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B988" s="8" t="s">
         <v>5</v>
       </c>
@@ -26504,7 +26511,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="989" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B989" s="8" t="s">
         <v>10</v>
       </c>
@@ -26530,7 +26537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="990" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B990" s="8" t="s">
         <v>5</v>
       </c>
@@ -26556,7 +26563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="991" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B991" s="8" t="s">
         <v>10</v>
       </c>
@@ -26582,7 +26589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="992" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B992" s="8" t="s">
         <v>5</v>
       </c>
@@ -26608,7 +26615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="993" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B993" s="8" t="s">
         <v>5</v>
       </c>
@@ -26634,7 +26641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="994" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B994" s="8" t="s">
         <v>10</v>
       </c>
@@ -26660,7 +26667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="995" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B995" s="8" t="s">
         <v>5</v>
       </c>
@@ -26686,7 +26693,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="996" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B996" s="8" t="s">
         <v>5</v>
       </c>
@@ -26712,7 +26719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="997" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B997" s="8" t="s">
         <v>5</v>
       </c>
@@ -26738,7 +26745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="998" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B998" s="8" t="s">
         <v>10</v>
       </c>
@@ -26764,7 +26771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="999" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B999" s="8" t="s">
         <v>5</v>
       </c>
@@ -26790,7 +26797,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1000" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1000" s="8" t="s">
         <v>10</v>
       </c>
@@ -26816,7 +26823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="1001" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1001" s="8" t="s">
         <v>5</v>
       </c>
@@ -26842,7 +26849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="1002" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1002" s="8" t="s">
         <v>5</v>
       </c>
@@ -26868,7 +26875,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1003" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1003" s="7" t="s">
         <v>5</v>
       </c>
